--- a/testcase/Testcase HTBanVe.xlsx
+++ b/testcase/Testcase HTBanVe.xlsx
@@ -1295,9 +1295,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1306,63 +1363,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1673,7 +1673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1683,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1698,68 +1698,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="38" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="39"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:10" ht="52.8">
       <c r="A9" s="1" t="s">
@@ -1771,11 +1771,11 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
       <c r="I9" s="3" t="s">
@@ -1793,11 +1793,11 @@
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
       <c r="I10" s="9"/>
@@ -1813,17 +1813,17 @@
       <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
       <c r="I11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="44"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="66.599999999999994" customHeight="1">
       <c r="A12" s="7" t="s">
@@ -1835,17 +1835,17 @@
       <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
       <c r="I12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -1859,17 +1859,17 @@
       <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
       <c r="I13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -1883,17 +1883,17 @@
       <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
       <c r="I14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -1907,17 +1907,17 @@
       <c r="C15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
       <c r="I15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="44"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" ht="66.599999999999994" customHeight="1">
       <c r="A16" s="7" t="s">
@@ -1929,11 +1929,11 @@
       <c r="C16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
       <c r="I16" s="9" t="s">
@@ -1951,11 +1951,11 @@
       <c r="C17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
       <c r="I17" s="9" t="s">
@@ -1973,11 +1973,11 @@
       <c r="C18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
       <c r="I18" s="9" t="s">
@@ -1995,17 +1995,17 @@
       <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
       <c r="I19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2019,11 +2019,11 @@
       <c r="C20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
       <c r="I20" s="9" t="s">
@@ -2041,11 +2041,11 @@
       <c r="C21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
       <c r="I21" s="9" t="s">
@@ -2063,11 +2063,11 @@
       <c r="C22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
       <c r="I22" s="9"/>
@@ -2083,11 +2083,11 @@
       <c r="C23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="9" t="s">
@@ -2105,11 +2105,11 @@
       <c r="C24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="9" t="s">
@@ -2127,11 +2127,11 @@
       <c r="C25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="9" t="s">
@@ -2149,11 +2149,11 @@
       <c r="C26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="9" t="s">
@@ -2171,11 +2171,11 @@
       <c r="C27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="I27" s="9" t="s">
@@ -2193,11 +2193,11 @@
       <c r="C28" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="9" t="s">
@@ -2215,11 +2215,11 @@
       <c r="C29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
       <c r="I29" s="9" t="s">
@@ -2237,11 +2237,11 @@
       <c r="C30" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="9"/>
       <c r="H30" s="10"/>
       <c r="I30" s="9" t="s">
@@ -2259,11 +2259,11 @@
       <c r="C31" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
       <c r="I31" s="9" t="s">
@@ -2281,17 +2281,17 @@
       <c r="C32" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
       <c r="I32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="44" t="s">
+      <c r="J32" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2305,17 +2305,17 @@
       <c r="C33" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="9"/>
       <c r="H33" s="10"/>
       <c r="I33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2329,17 +2329,17 @@
       <c r="C34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
       <c r="I34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="44" t="s">
+      <c r="J34" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2353,17 +2353,17 @@
       <c r="C35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
       <c r="I35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       <c r="C36" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
       <c r="I36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="44" t="s">
+      <c r="J36" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2401,17 +2401,17 @@
       <c r="C37" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
       <c r="I37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="44" t="s">
+      <c r="J37" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2425,17 +2425,17 @@
       <c r="C38" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
       <c r="I38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="44" t="s">
+      <c r="J38" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2449,17 +2449,17 @@
       <c r="C39" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
       <c r="I39" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J39" s="44" t="s">
+      <c r="J39" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2473,17 +2473,17 @@
       <c r="C40" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="9"/>
       <c r="H40" s="10"/>
       <c r="I40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="44" t="s">
+      <c r="J40" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2497,17 +2497,17 @@
       <c r="C41" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
       <c r="I41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="44" t="s">
+      <c r="J41" s="22" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2521,11 +2521,11 @@
       <c r="C42" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
       <c r="I42" s="9" t="s">
@@ -2543,11 +2543,11 @@
       <c r="C43" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
       <c r="I43" s="9" t="s">
@@ -2565,11 +2565,11 @@
       <c r="C44" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
       <c r="I44" s="9" t="s">
@@ -2587,11 +2587,11 @@
       <c r="C45" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
       <c r="G45" s="9"/>
       <c r="H45" s="10"/>
       <c r="I45" s="9" t="s">
@@ -2609,11 +2609,11 @@
       <c r="C46" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="9"/>
       <c r="H46" s="10"/>
       <c r="I46" s="9" t="s">
@@ -2631,29 +2631,29 @@
       <c r="C47" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="36.6" customHeight="1">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" ht="52.8">
       <c r="A49" s="1" t="s">
@@ -2665,11 +2665,11 @@
       <c r="C49" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
       <c r="G49" s="4"/>
       <c r="H49" s="5"/>
       <c r="I49" s="3" t="s">
@@ -2687,11 +2687,11 @@
       <c r="C50" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="9"/>
       <c r="H50" s="10"/>
       <c r="I50" s="9" t="s">
@@ -2709,11 +2709,11 @@
       <c r="C51" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
       <c r="G51" s="9"/>
       <c r="H51" s="10"/>
       <c r="I51" s="9"/>
@@ -2729,11 +2729,11 @@
       <c r="C52" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="9"/>
       <c r="H52" s="10"/>
       <c r="I52" s="9"/>
@@ -2749,11 +2749,11 @@
       <c r="C53" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
       <c r="I53" s="9"/>
@@ -2769,11 +2769,11 @@
       <c r="C54" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="9"/>
       <c r="H54" s="10"/>
       <c r="I54" s="9" t="s">
@@ -2791,11 +2791,11 @@
       <c r="C55" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="9"/>
       <c r="H55" s="10"/>
       <c r="I55" s="9" t="s">
@@ -2813,29 +2813,29 @@
       <c r="C56" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
       <c r="G56" s="9"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="26.4" customHeight="1">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="25"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:10" ht="66.599999999999994" customHeight="1">
       <c r="A58" s="7" t="s">
@@ -2847,11 +2847,11 @@
       <c r="C58" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
       <c r="G58" s="9"/>
       <c r="H58" s="10"/>
       <c r="I58" s="9" t="s">
@@ -2869,11 +2869,11 @@
       <c r="C59" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
       <c r="G59" s="9"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9" t="s">
@@ -2891,11 +2891,11 @@
       <c r="C60" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
       <c r="G60" s="9"/>
       <c r="H60" s="10"/>
       <c r="I60" s="9" t="s">
@@ -2913,11 +2913,11 @@
       <c r="C61" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
       <c r="G61" s="9"/>
       <c r="H61" s="10"/>
       <c r="I61" s="9" t="s">
@@ -2935,11 +2935,11 @@
       <c r="C62" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
       <c r="G62" s="9"/>
       <c r="H62" s="10"/>
       <c r="I62" s="9" t="s">
@@ -2957,11 +2957,11 @@
       <c r="C63" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="9"/>
       <c r="H63" s="10"/>
       <c r="I63" s="9" t="s">
@@ -2979,11 +2979,11 @@
       <c r="C64" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
       <c r="G64" s="9"/>
       <c r="H64" s="10"/>
       <c r="I64" s="9" t="s">
@@ -3001,11 +3001,11 @@
       <c r="C65" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
       <c r="I65" s="9" t="s">
@@ -3023,11 +3023,11 @@
       <c r="C66" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
       <c r="G66" s="9"/>
       <c r="H66" s="10"/>
       <c r="I66" s="9" t="s">
@@ -3045,11 +3045,11 @@
       <c r="C67" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
       <c r="G67" s="9"/>
       <c r="H67" s="10"/>
       <c r="I67" s="9" t="s">
@@ -3067,11 +3067,11 @@
       <c r="C68" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
       <c r="G68" s="9"/>
       <c r="H68" s="10"/>
       <c r="I68" s="9" t="s">
@@ -3089,11 +3089,11 @@
       <c r="C69" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
       <c r="G69" s="9"/>
       <c r="H69" s="10"/>
       <c r="I69" s="9" t="s">
@@ -3111,11 +3111,11 @@
       <c r="C70" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
       <c r="G70" s="9"/>
       <c r="H70" s="10"/>
       <c r="I70" s="9" t="s">
@@ -3133,11 +3133,11 @@
       <c r="C71" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
       <c r="G71" s="9"/>
       <c r="H71" s="10"/>
       <c r="I71" s="9" t="s">
@@ -3155,11 +3155,11 @@
       <c r="C72" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
       <c r="G72" s="9"/>
       <c r="H72" s="10"/>
       <c r="I72" s="9" t="s">
@@ -3177,11 +3177,11 @@
       <c r="C73" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
       <c r="G73" s="9"/>
       <c r="H73" s="10"/>
       <c r="I73" s="9" t="s">
@@ -3199,11 +3199,11 @@
       <c r="C74" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
       <c r="G74" s="9"/>
       <c r="H74" s="10"/>
       <c r="I74" s="9" t="s">
@@ -3221,11 +3221,11 @@
       <c r="C75" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
       <c r="G75" s="9"/>
       <c r="H75" s="10"/>
       <c r="I75" s="9" t="s">
@@ -3243,11 +3243,11 @@
       <c r="C76" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="9"/>
       <c r="H76" s="10"/>
       <c r="I76" s="9" t="s">
@@ -3265,11 +3265,11 @@
       <c r="C77" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
       <c r="G77" s="9"/>
       <c r="H77" s="10"/>
       <c r="I77" s="9" t="s">
@@ -3287,11 +3287,11 @@
       <c r="C78" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
       <c r="I78" s="9" t="s">
@@ -3309,11 +3309,11 @@
       <c r="C79" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
       <c r="G79" s="9"/>
       <c r="H79" s="10"/>
       <c r="I79" s="9" t="s">
@@ -3331,11 +3331,11 @@
       <c r="C80" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
       <c r="G80" s="9"/>
       <c r="H80" s="10"/>
       <c r="I80" s="9" t="s">
@@ -3353,11 +3353,11 @@
       <c r="C81" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
       <c r="G81" s="9"/>
       <c r="H81" s="10"/>
       <c r="I81" s="9" t="s">
@@ -3375,11 +3375,11 @@
       <c r="C82" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
       <c r="I82" s="9" t="s">
@@ -3397,11 +3397,11 @@
       <c r="C83" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
       <c r="G83" s="9"/>
       <c r="H83" s="10"/>
       <c r="I83" s="9" t="s">
@@ -3419,11 +3419,11 @@
       <c r="C84" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
       <c r="G84" s="9"/>
       <c r="H84" s="10"/>
       <c r="I84" s="9" t="s">
@@ -3441,11 +3441,11 @@
       <c r="C85" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="9"/>
       <c r="H85" s="10"/>
       <c r="I85" s="9" t="s">
@@ -3463,11 +3463,11 @@
       <c r="C86" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
       <c r="G86" s="9"/>
       <c r="H86" s="10"/>
       <c r="I86" s="9"/>
@@ -3485,11 +3485,11 @@
       <c r="C87" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
       <c r="G87" s="9"/>
       <c r="H87" s="10"/>
       <c r="I87" s="9" t="s">
@@ -3507,11 +3507,11 @@
       <c r="C88" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
       <c r="G88" s="9"/>
       <c r="H88" s="10"/>
       <c r="I88" s="9" t="s">
@@ -3529,11 +3529,11 @@
       <c r="C89" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
       <c r="G89" s="9"/>
       <c r="H89" s="10"/>
       <c r="I89" s="9"/>
@@ -3549,11 +3549,11 @@
       <c r="C90" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
       <c r="G90" s="9"/>
       <c r="H90" s="10"/>
       <c r="I90" s="9" t="s">
@@ -3571,11 +3571,11 @@
       <c r="C91" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
       <c r="G91" s="9"/>
       <c r="H91" s="10"/>
       <c r="I91" s="9" t="s">
@@ -3593,11 +3593,11 @@
       <c r="C92" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
       <c r="G92" s="9"/>
       <c r="H92" s="10"/>
       <c r="I92" s="9" t="s">
@@ -3615,11 +3615,11 @@
       <c r="C93" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
       <c r="G93" s="9"/>
       <c r="H93" s="10"/>
       <c r="I93" s="9" t="s">
@@ -3637,11 +3637,11 @@
       <c r="C94" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
       <c r="G94" s="9"/>
       <c r="H94" s="10"/>
       <c r="I94" s="9" t="s">
@@ -3659,11 +3659,11 @@
       <c r="C95" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
       <c r="G95" s="9"/>
       <c r="H95" s="10"/>
       <c r="I95" s="9" t="s">
@@ -3681,11 +3681,11 @@
       <c r="C96" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
       <c r="G96" s="9"/>
       <c r="H96" s="10"/>
       <c r="I96" s="9" t="s">
@@ -3703,11 +3703,11 @@
       <c r="C97" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
       <c r="G97" s="9"/>
       <c r="H97" s="10"/>
       <c r="I97" s="9" t="s">
@@ -3725,11 +3725,11 @@
       <c r="C98" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
       <c r="G98" s="9"/>
       <c r="H98" s="10"/>
       <c r="I98" s="9" t="s">
@@ -3779,9 +3779,9 @@
       <c r="A102" s="7"/>
       <c r="B102" s="12"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
       <c r="G102" s="9"/>
       <c r="H102" s="10"/>
       <c r="I102" s="9"/>
@@ -3791,9 +3791,9 @@
       <c r="A103" s="16"/>
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
       <c r="G103" s="18"/>
       <c r="H103" s="21"/>
       <c r="I103" s="18"/>
@@ -3801,29 +3801,50 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D51:F51"/>
     <mergeCell ref="D103:F103"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
@@ -3848,6 +3869,20 @@
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D61:F61"/>
@@ -3858,50 +3893,15 @@
     <mergeCell ref="A57:J57"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
